--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirav\SWDC-Report-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74694D5F-1776-42EB-96F8-E2D6EEA982C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CA742-9CE7-4C7C-8311-D26256D5A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +652,2181 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
